--- a/server/resource/excel/ExcelExport.xlsx
+++ b/server/resource/excel/ExcelExport.xlsx
@@ -14,27 +14,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>路由Name</t>
-  </si>
-  <si>
-    <t>路由Path</t>
-  </si>
-  <si>
-    <t>是否隐藏</t>
-  </si>
-  <si>
-    <t>父节点</t>
-  </si>
-  <si>
-    <t>排序</t>
-  </si>
-  <si>
-    <t>文件名称</t>
+    <t>分支机构</t>
+  </si>
+  <si>
+    <t>试卷ID</t>
+  </si>
+  <si>
+    <t>问题标题</t>
+  </si>
+  <si>
+    <t>说明指导</t>
+  </si>
+  <si>
+    <t>是否必答</t>
+  </si>
+  <si>
+    <t>题型编号</t>
+  </si>
+  <si>
+    <t>发题人</t>
+  </si>
+  <si>
+    <t>按期参加党员大会/党员小组会/上党课</t>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 </t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>按时参加主题党日活动</t>
+  </si>
+  <si>
+    <t>34545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 </t>
+  </si>
+  <si>
+    <t>bd1ee013-6a6e-4436-abd2-d5a5f20bbcec</t>
+  </si>
+  <si>
+    <t>按时参见组织生活并积极展开批评与自我批评</t>
   </si>
   <si>
     <t/>
@@ -375,97 +405,86 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" ht="15" customHeight="true">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="true">
       <c r="A3">
         <v>19</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="true">
       <c r="A4">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="b">
+      <c r="B4">
         <v>0</v>
       </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="true">
-      <c r="A5">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5" t="s">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/server/resource/excel/ExcelExport.xlsx
+++ b/server/resource/excel/ExcelExport.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>ID</t>
   </si>
@@ -43,10 +43,10 @@
     <t>按期参加党员大会/党员小组会/上党课</t>
   </si>
   <si>
-    <t>1111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 </t>
+    <t>aaa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 </t>
   </si>
   <si>
     <t>111</t>
@@ -55,10 +55,7 @@
     <t>按时参加主题党日活动</t>
   </si>
   <si>
-    <t>34545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 </t>
+    <t>dddaaa</t>
   </si>
   <si>
     <t>bd1ee013-6a6e-4436-abd2-d5a5f20bbcec</t>
@@ -67,7 +64,7 @@
     <t>按时参见组织生活并积极展开批评与自我批评</t>
   </si>
   <si>
-    <t/>
+    <t>ddaa</t>
   </si>
 </sst>
 </file>
@@ -426,7 +423,7 @@
         <v>9</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -455,10 +452,10 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="true">
@@ -472,19 +469,19 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
         <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" t="s">
         <v>14</v>
-      </c>
-      <c r="H4" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/server/resource/excel/ExcelExport.xlsx
+++ b/server/resource/excel/ExcelExport.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>ID</t>
   </si>
@@ -40,24 +40,15 @@
     <t>发题人</t>
   </si>
   <si>
-    <t>按期参加党员大会/党员小组会/上党课</t>
-  </si>
-  <si>
-    <t>aaa</t>
+    <t>按时参加主题党日活动</t>
+  </si>
+  <si>
+    <t>dddaaad1</t>
   </si>
   <si>
     <t xml:space="preserve">4 </t>
   </si>
   <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>按时参加主题党日活动</t>
-  </si>
-  <si>
-    <t>dddaaa</t>
-  </si>
-  <si>
     <t>bd1ee013-6a6e-4436-abd2-d5a5f20bbcec</t>
   </si>
   <si>
@@ -65,6 +56,57 @@
   </si>
   <si>
     <t>ddaa</t>
+  </si>
+  <si>
+    <t>test44aaa</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 </t>
+  </si>
+  <si>
+    <t>超级管理员</t>
+  </si>
+  <si>
+    <t>test1-test</t>
+  </si>
+  <si>
+    <t>test11111332</t>
+  </si>
+  <si>
+    <t>test1222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 </t>
+  </si>
+  <si>
+    <t>test133</t>
+  </si>
+  <si>
+    <t>test13333</t>
+  </si>
+  <si>
+    <t>test1111</t>
+  </si>
+  <si>
+    <t>test1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 </t>
+  </si>
+  <si>
+    <t>test9111</t>
+  </si>
+  <si>
+    <t>test102</t>
+  </si>
+  <si>
+    <t>testt55</t>
+  </si>
+  <si>
+    <t>11121122222</t>
   </si>
 </sst>
 </file>
@@ -408,10 +450,10 @@
     </row>
     <row r="2" ht="15" customHeight="true">
       <c r="A2">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -423,7 +465,7 @@
         <v>9</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -434,10 +476,10 @@
     </row>
     <row r="3" ht="15" customHeight="true">
       <c r="A3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -449,39 +491,221 @@
         <v>13</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="true">
       <c r="A4">
+        <v>30</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="true">
+      <c r="A5">
+        <v>31</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="true">
+      <c r="A6">
+        <v>32</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
         <v>20</v>
       </c>
-      <c r="B4">
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="true">
+      <c r="A7">
+        <v>33</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7">
         <v>0</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="G7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="true">
+      <c r="A8">
+        <v>34</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="true">
+      <c r="A9">
+        <v>35</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
         <v>16</v>
       </c>
-      <c r="F4">
+      <c r="H9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="true">
+      <c r="A10">
+        <v>36</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="true">
+      <c r="A11">
+        <v>40</v>
+      </c>
+      <c r="B11">
         <v>0</v>
       </c>
-      <c r="G4" t="s">
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
         <v>10</v>
       </c>
-      <c r="H4" t="s">
-        <v>14</v>
+      <c r="H11" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/server/resource/excel/ExcelExport.xlsx
+++ b/server/resource/excel/ExcelExport.xlsx
@@ -40,7 +40,7 @@
     <t>发题人</t>
   </si>
   <si>
-    <t>按时参加主题党日活动</t>
+    <t>按时参加主题党日活动1</t>
   </si>
   <si>
     <t>dddaaad1</t>
